--- a/03.crawler/05.Standard/file/2.part/crawler_1.xlsx
+++ b/03.crawler/05.Standard/file/2.part/crawler_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,57 +446,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Vehicle</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Picture</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>Json_Type</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Webbase</t>
+          <t>Json_Info</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Brand</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Partdesc_En</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Partlongdesc_En</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pop</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Qtyeach</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Spec</t>
+          <t>Json_Specification</t>
         </is>
       </c>
     </row>
@@ -511,56 +486,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=CCR-3&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Kia Sephia (01-94)
 Kia Spectra (04-00)
 Kia Sportage (00-95)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=CCR3&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Clutch Starter Safety", "1": "Switch - Cruise Control Release"}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CCR3</t>
+          <t>{"Brand": "STI", "Partdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Partlongdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>STI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "2"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade"}}</t>
         </is>
@@ -577,54 +524,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=CCR-6&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Porsche 911 (96-94)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=CCR6&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Clutch Starter Safety", "1": "Switch - Cruise Control Release"}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CCR6</t>
+          <t>{"Brand": "STI", "Partdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Partlongdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>STI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Male"}, "2": {"Terminal Quantity": "2"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade"}, "5": {"Color/Finish": "Gray"}, "6": {"Finish": "Dichromate, Plastic"}, "7": {"Contents": "Switch"}}</t>
         </is>
@@ -641,54 +560,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=CCR-7&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Pontiac GTO (05-04)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=CCR7&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CCR7</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "2"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade"}, "5": {"Color/Finish": "Blue, Gray"}, "6": {"Finish": "Plastic"}, "7": {"Contents": "Switch"}}</t>
         </is>
@@ -705,54 +596,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-2282&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Toyota Tacoma (05)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS2282&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>DS2282</t>
+          <t>{"Brand": "STI", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>STI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female"}, "3": {"Terminal Quantity": "4"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}, "6": {"Color/Finish": "Black"}, "7": {"Finish": "Plastic"}, "8": {"Contents": "Switch"}}</t>
         </is>
@@ -768,11 +631,6 @@
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=LS-312&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>Mazda B2200 (93)
 Mazda B2600 (93-87)
@@ -780,46 +638,23 @@
 Mazda Protege (98-95)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=LS312&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Back-Up Light", "1": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>LS312</t>
+          <t>{"Brand": "STI", "Partdesc_En": "Back-Up Light Switch", "Partlongdesc_En": "Back-Up Light Switch", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>STI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Back-Up Light Switch</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Back-Up Light Switch</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female"}, "3": {"Terminal Quantity": "2"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}, "6": {"Attachment Method": "Snap Fit"}, "7": {"Color/Finish": "Metal"}, "8": {"Finish": "Metal, Plastic"}, "9": {"Mounting Type": "Screw-in"}, "10": {"Material": "Metal, Plastic"}}</t>
         </is>
@@ -835,11 +670,6 @@
         </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=NS-35&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>Chevrolet Blazer (95), (91-89)
 Chevrolet C1500 (96-88)
@@ -895,46 +725,23 @@
 Saturn Vue (07)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=NS35&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Clutch Starter Safety", "1": "Switch - Neutral Safety"}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NS35</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "B", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Voltage": "12V"}, "2": {"Connector Quantity": "1"}, "3": {"Connector Shape": "Square"}, "4": {"Connector Gender": "Female"}, "5": {"Terminal Quantity": "2"}, "6": {"Terminal Gender": "Male"}, "7": {"Terminal Type": "Blade"}, "8": {"Attachment Method": "Push-in"}, "9": {"Color/Finish": "Black"}, "10": {"Hardware included": "No"}, "11": {"Material": "Plastic"}, "12": {"Length - Inches": "2"}, "13": {"Gaskets Included": "No"}, "14": {"Length - mm": "50.8"}, "15": {"Number of Wires": "0"}}</t>
         </is>
@@ -950,11 +757,6 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=NS-56&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>Acura Integra (01-86)
 Acura Legend (90-86)
@@ -970,46 +772,23 @@
 Honda S2000 (09-00)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=NS56&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Clutch Starter Safety", "1": "Switch - Cruise Control Release"}</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NS56</t>
+          <t>{"Brand": "STI", "Partdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Partlongdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Pop": "D", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>STI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female"}, "3": {"Terminal Quantity": "2"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}, "6": {"Color/Finish": "White, Silver"}, "7": {"Finish": "Plastic, Metal"}, "8": {"Contents": "Switch"}}</t>
         </is>
@@ -1026,54 +805,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=NS-63&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Ford Mustang (04-86)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=NS63&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NS63</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "D", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female; Female"}, "3": {"Terminal Quantity": "4"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}, "6": {"Color/Finish": "Gray, White"}, "7": {"Finish": "Plastic"}}</t>
         </is>
@@ -1089,11 +840,6 @@
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=NS-68&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>Ford Escort (02-91)
 Ford Probe (97-90)
@@ -1101,46 +847,23 @@
 Mercury Tracer (99-91)</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=NS68&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NS68</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "W", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "2"}, "2": {"Connector Gender": "Male"}, "3": {"Terminal Quantity": "2"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}, "6": {"Color/Finish": "White"}, "7": {"Finish": "Plastic"}}</t>
         </is>
@@ -1157,54 +880,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=NS-69&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Acura Legend (95-91)</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=NS69&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NS69</t>
+          <t>{"Brand": "STI", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
-        <is>
-          <t>STI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female"}, "3": {"Terminal Quantity": "2"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade Terminals"}}</t>
         </is>
